--- a/data/processed/1_FDRS_Wide_Format_IP_ALL.xlsx
+++ b/data/processed/1_FDRS_Wide_Format_IP_ALL.xlsx
@@ -56800,4 +56800,258 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100690A46C601EF784FB4DBF90453A8B30A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="30e798558c24d933b83cabca3a8549cd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad" xmlns:ns3="ffb314bc-7b2d-45ce-a517-7d370eafd82d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bfbdb12039145b339eccd1e6b363e79e" ns2:_="" ns3:_="">
+    <xsd:import namespace="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad"/>
+    <xsd:import namespace="ffb314bc-7b2d-45ce-a517-7d370eafd82d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="67bd97f6-f5f5-4f29-8f0d-e757ed3ec3ad" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="214f832c-f6f1-485d-8901-6765a4832c56" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ffb314bc-7b2d-45ce-a517-7d370eafd82d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{7bd8c229-fb44-4a46-a07d-edf5d86c7a44}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="ffb314bc-7b2d-45ce-a517-7d370eafd82d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7902F61E-A112-4973-8841-BBBB0AA296CA}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A747405C-24AD-406F-AC4F-095A2151765C}"/>
 </file>
--- a/data/processed/1_FDRS_Wide_Format_IP_ALL.xlsx
+++ b/data/processed/1_FDRS_Wide_Format_IP_ALL.xlsx
@@ -5575,7 +5575,7 @@
         <v>24</v>
       </c>
       <c r="I16">
-        <v>4645563</v>
+        <v>4619124</v>
       </c>
       <c r="J16">
         <v>442</v>
@@ -5620,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="X16">
-        <v>4691591</v>
+        <v>4664890</v>
       </c>
       <c r="Y16">
         <v>158</v>
@@ -18967,7 +18967,7 @@
         <v>24</v>
       </c>
       <c r="I205">
-        <v>4765004</v>
+        <v>4813783</v>
       </c>
       <c r="J205">
         <v>448</v>
@@ -19012,7 +19012,7 @@
         <v>1</v>
       </c>
       <c r="X205">
-        <v>4717767</v>
+        <v>4766063</v>
       </c>
       <c r="Y205">
         <v>158</v>
@@ -29720,7 +29720,7 @@
         <v>24</v>
       </c>
       <c r="I372">
-        <v>5802614</v>
+        <v>5726251</v>
       </c>
       <c r="J372">
         <v>424</v>
@@ -29765,7 +29765,7 @@
         <v>1</v>
       </c>
       <c r="X372">
-        <v>5596586</v>
+        <v>5522935</v>
       </c>
       <c r="Y372">
         <v>158</v>
@@ -41963,6 +41963,9 @@
       <c r="H548">
         <v>16</v>
       </c>
+      <c r="I548">
+        <v>214466975</v>
+      </c>
       <c r="J548">
         <v>924</v>
       </c>
@@ -41989,6 +41992,9 @@
       </c>
       <c r="W548">
         <v>1</v>
+      </c>
+      <c r="X548">
+        <v>209180277</v>
       </c>
       <c r="Y548">
         <v>202</v>
@@ -42843,6 +42849,9 @@
       <c r="H559">
         <v>18</v>
       </c>
+      <c r="I559">
+        <v>20660214</v>
+      </c>
       <c r="J559">
         <v>2000</v>
       </c>
@@ -42878,6 +42887,9 @@
       </c>
       <c r="W559">
         <v>1</v>
+      </c>
+      <c r="X559">
+        <v>19126406</v>
       </c>
       <c r="Y559">
         <v>316</v>
@@ -42914,6 +42926,9 @@
       <c r="H560">
         <v>6</v>
       </c>
+      <c r="I560">
+        <v>2123966</v>
+      </c>
       <c r="J560">
         <v>25</v>
       </c>
@@ -42928,6 +42943,9 @@
       </c>
       <c r="W560">
         <v>1</v>
+      </c>
+      <c r="X560">
+        <v>2603070</v>
       </c>
       <c r="Y560">
         <v>4</v>
@@ -43966,6 +43984,9 @@
       <c r="H573">
         <v>12</v>
       </c>
+      <c r="I573">
+        <v>114730764</v>
+      </c>
       <c r="J573">
         <v>777</v>
       </c>
@@ -43989,6 +44010,9 @@
       </c>
       <c r="W573">
         <v>1</v>
+      </c>
+      <c r="X573">
+        <v>77265457</v>
       </c>
       <c r="Y573">
         <v>581</v>
@@ -44032,7 +44056,7 @@
         <v>11</v>
       </c>
       <c r="I574">
-        <v>565198</v>
+        <v>565198000</v>
       </c>
       <c r="J574">
         <v>5348</v>
@@ -44068,7 +44092,7 @@
         <v>1</v>
       </c>
       <c r="X574">
-        <v>578473</v>
+        <v>578473000</v>
       </c>
       <c r="Y574">
         <v>105</v>
@@ -44754,6 +44778,9 @@
       <c r="H583">
         <v>17</v>
       </c>
+      <c r="I583">
+        <v>3981677</v>
+      </c>
       <c r="J583">
         <v>147</v>
       </c>
@@ -44795,6 +44822,9 @@
       </c>
       <c r="W583">
         <v>1</v>
+      </c>
+      <c r="X583">
+        <v>3736596</v>
       </c>
       <c r="Y583">
         <v>132</v>
@@ -46308,7 +46338,7 @@
         <v>66804</v>
       </c>
       <c r="Q617">
-        <v>1301</v>
+        <v>1417</v>
       </c>
       <c r="R617">
         <v>0</v>
@@ -49734,7 +49764,7 @@
         <v>12</v>
       </c>
       <c r="I668">
-        <v>270512869</v>
+        <v>404053827</v>
       </c>
       <c r="J668">
         <v>2570</v>
@@ -49776,7 +49806,7 @@
         <v>193333.3333333333</v>
       </c>
       <c r="X668">
-        <v>274913556</v>
+        <v>374314542</v>
       </c>
       <c r="Y668">
         <v>180</v>
@@ -51426,7 +51456,7 @@
         <v>12</v>
       </c>
       <c r="I692">
-        <v>286377</v>
+        <v>1111714</v>
       </c>
       <c r="J692">
         <v>34</v>
@@ -51450,7 +51480,7 @@
         <v>66804</v>
       </c>
       <c r="Q692">
-        <v>1301</v>
+        <v>1533</v>
       </c>
       <c r="R692">
         <v>0</v>
@@ -51471,7 +51501,7 @@
         <v>1</v>
       </c>
       <c r="X692">
-        <v>158546</v>
+        <v>1759274</v>
       </c>
       <c r="Y692">
         <v>10</v>
@@ -51938,43 +51968,49 @@
         <v>9</v>
       </c>
       <c r="I699">
-        <v>473102</v>
+        <v>619688</v>
       </c>
       <c r="J699">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K699">
-        <v>700</v>
+        <v>850</v>
       </c>
       <c r="M699">
-        <v>175260</v>
+        <v>0</v>
       </c>
       <c r="N699">
-        <v>24966</v>
+        <v>94</v>
       </c>
       <c r="O699">
-        <v>253394.5</v>
+        <v>409</v>
       </c>
       <c r="P699">
-        <v>10927.5</v>
+        <v>98</v>
       </c>
       <c r="Q699">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="S699">
+        <v>56</v>
       </c>
       <c r="T699">
         <v>12</v>
       </c>
       <c r="U699">
-        <v>31.5</v>
+        <v>0</v>
       </c>
       <c r="V699">
-        <v>1414</v>
+        <v>853</v>
+      </c>
+      <c r="W699">
+        <v>1</v>
       </c>
       <c r="X699">
-        <v>451555</v>
+        <v>447156</v>
       </c>
       <c r="Y699">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="700" spans="1:25">
@@ -56743,7 +56779,7 @@
         <v>5</v>
       </c>
       <c r="I769">
-        <v>5918624</v>
+        <v>6091687</v>
       </c>
       <c r="J769">
         <v>16008</v>
@@ -56788,7 +56824,7 @@
         <v>1</v>
       </c>
       <c r="X769">
-        <v>2976457</v>
+        <v>5980000</v>
       </c>
       <c r="Y769">
         <v>12693</v>
@@ -57049,9 +57085,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7902F61E-A112-4973-8841-BBBB0AA296CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CC9CB30-EBBF-4C74-B842-E6648219A529}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A747405C-24AD-406F-AC4F-095A2151765C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05092969-9790-4A09-9B32-072324105EFF}"/>
 </file>